--- a/tables/TableS4_odds_ratios.xlsx
+++ b/tables/TableS4_odds_ratios.xlsx
@@ -123,7 +123,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.304530414372617</v>
+        <v>4.304530414372616</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -156,7 +156,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.1246762423983037</v>
+        <v>3.124676242398302</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -178,7 +178,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.8563921142758055</v>
+        <v>1.8563921142758046</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -200,7 +200,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.4165714517229764</v>
+        <v>1.4165714517229768</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -211,7 +211,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.233421002899652</v>
+        <v>1.2334210028996513</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8639232355216222</v>
+        <v>0.8639232355216223</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -588,13 +588,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>3.977650480072137</v>
+        <v>3.9776504800721364</v>
       </c>
       <c r="D2" t="n">
-        <v>2.8209928070760055</v>
+        <v>2.8209928070760046</v>
       </c>
       <c r="E2" t="n">
-        <v>5.134308153068269</v>
+        <v>5.134308153068268</v>
       </c>
     </row>
     <row r="3">
@@ -622,10 +622,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1.7675255328063169</v>
+        <v>1.7675255328063166</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0979612234867284</v>
+        <v>1.097961223486728</v>
       </c>
       <c r="E4" t="n">
         <v>2.4370898421259053</v>
